--- a/src/test/resources/TestData/original.xlsx
+++ b/src/test/resources/TestData/original.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="113">
   <si>
     <t>Head_Circumference</t>
   </si>
@@ -106,6 +106,15 @@
     <t>version</t>
   </si>
   <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>Version Mars</t>
+  </si>
+  <si>
     <t>67.18</t>
   </si>
   <si>
@@ -176,6 +185,180 @@
   </si>
   <si>
     <t>true</t>
+  </si>
+  <si>
+    <t>Temps de réponse</t>
+  </si>
+  <si>
+    <t>4.78s</t>
+  </si>
+  <si>
+    <t>61.83</t>
+  </si>
+  <si>
+    <t>44.07</t>
+  </si>
+  <si>
+    <t>25.93</t>
+  </si>
+  <si>
+    <t>22.23</t>
+  </si>
+  <si>
+    <t>93.41</t>
+  </si>
+  <si>
+    <t>96.3</t>
+  </si>
+  <si>
+    <t>83.98</t>
+  </si>
+  <si>
+    <t>36.73</t>
+  </si>
+  <si>
+    <t>36.32</t>
+  </si>
+  <si>
+    <t>32.09</t>
+  </si>
+  <si>
+    <t>31.31</t>
+  </si>
+  <si>
+    <t>95.22</t>
+  </si>
+  <si>
+    <t>102.96</t>
+  </si>
+  <si>
+    <t>51.97</t>
+  </si>
+  <si>
+    <t>58.54</t>
+  </si>
+  <si>
+    <t>XS</t>
+  </si>
+  <si>
+    <t>90.99</t>
+  </si>
+  <si>
+    <t>50.91</t>
+  </si>
+  <si>
+    <t>67.08</t>
+  </si>
+  <si>
+    <t>82.27</t>
+  </si>
+  <si>
+    <t>4.05s</t>
+  </si>
+  <si>
+    <t>95.95</t>
+  </si>
+  <si>
+    <t>97.6</t>
+  </si>
+  <si>
+    <t>85.94</t>
+  </si>
+  <si>
+    <t>35.91</t>
+  </si>
+  <si>
+    <t>37.08</t>
+  </si>
+  <si>
+    <t>33.26</t>
+  </si>
+  <si>
+    <t>32.24</t>
+  </si>
+  <si>
+    <t>97.54</t>
+  </si>
+  <si>
+    <t>104.8</t>
+  </si>
+  <si>
+    <t>50.7</t>
+  </si>
+  <si>
+    <t>57.11</t>
+  </si>
+  <si>
+    <t>3.81s</t>
+  </si>
+  <si>
+    <t>64.45</t>
+  </si>
+  <si>
+    <t>42.72</t>
+  </si>
+  <si>
+    <t>28.79</t>
+  </si>
+  <si>
+    <t>20.53</t>
+  </si>
+  <si>
+    <t>86.69</t>
+  </si>
+  <si>
+    <t>96.24</t>
+  </si>
+  <si>
+    <t>75.81</t>
+  </si>
+  <si>
+    <t>92.54</t>
+  </si>
+  <si>
+    <t>130.06</t>
+  </si>
+  <si>
+    <t>131.02</t>
+  </si>
+  <si>
+    <t>111.04</t>
+  </si>
+  <si>
+    <t>95.44</t>
+  </si>
+  <si>
+    <t>102.98</t>
+  </si>
+  <si>
+    <t>61.94</t>
+  </si>
+  <si>
+    <t>69.76</t>
+  </si>
+  <si>
+    <t>93.21</t>
+  </si>
+  <si>
+    <t>52.79</t>
+  </si>
+  <si>
+    <t>67.94</t>
+  </si>
+  <si>
+    <t>94.42</t>
+  </si>
+  <si>
+    <t>2.74s</t>
+  </si>
+  <si>
+    <t>Version Mi-Avril 2024</t>
+  </si>
+  <si>
+    <t>3.87s</t>
+  </si>
+  <si>
+    <t>8.55s</t>
   </si>
 </sst>
 </file>
@@ -183,7 +366,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -214,6 +397,46 @@
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -345,7 +568,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
@@ -360,15 +583,33 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -683,7 +924,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:Z26"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
@@ -694,9 +935,17 @@
     <col min="1" max="1" customWidth="true" style="8" width="9.109375" collapsed="true"/>
     <col min="2" max="2" customWidth="true" style="10" width="9.109375" collapsed="true"/>
     <col min="5" max="5" customWidth="true" width="19.53125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="19.53125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="19.53125" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="19.53125" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="19.53125" collapsed="false"/>
+    <col min="26" max="26" width="19.53125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -706,17 +955,77 @@
       <c r="B1" s="6" t="s">
         <v>27</v>
       </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
       <c r="E1" t="s" s="13">
-        <v>49</v>
-      </c>
-      <c r="H1" t="s" s="16">
-        <v>49</v>
-      </c>
-      <c r="K1" t="s" s="19">
-        <v>49</v>
-      </c>
-      <c r="N1" t="s" s="22">
-        <v>49</v>
+        <v>52</v>
+      </c>
+      <c r="F1" t="s" s="15">
+        <v>55</v>
+      </c>
+      <c r="G1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" t="s" s="18">
+        <v>52</v>
+      </c>
+      <c r="J1" t="s" s="20">
+        <v>55</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s" s="23">
+        <v>52</v>
+      </c>
+      <c r="N1" t="s" s="25">
+        <v>55</v>
+      </c>
+      <c r="O1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q1" t="s" s="28">
+        <v>52</v>
+      </c>
+      <c r="R1" t="s" s="30">
+        <v>55</v>
+      </c>
+      <c r="S1" t="s">
+        <v>28</v>
+      </c>
+      <c r="T1" t="s">
+        <v>29</v>
+      </c>
+      <c r="U1" t="s" s="33">
+        <v>52</v>
+      </c>
+      <c r="V1" t="s" s="35">
+        <v>55</v>
+      </c>
+      <c r="W1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y1" t="s" s="38">
+        <v>52</v>
+      </c>
+      <c r="Z1" t="s" s="40">
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -726,17 +1035,77 @@
       <c r="B2" s="5" t="s">
         <v>25</v>
       </c>
+      <c r="C2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>47</v>
+      </c>
+      <c r="F2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2.0</v>
       </c>
       <c r="H2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K2" t="s">
-        <v>44</v>
+        <v>30</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" t="s">
+        <v>47</v>
       </c>
       <c r="N2" t="s">
-        <v>44</v>
+        <v>47</v>
+      </c>
+      <c r="O2" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="P2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>47</v>
+      </c>
+      <c r="R2" t="s">
+        <v>47</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T2" t="s">
+        <v>110</v>
+      </c>
+      <c r="U2" t="s">
+        <v>47</v>
+      </c>
+      <c r="V2" t="s">
+        <v>47</v>
+      </c>
+      <c r="W2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X2" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -750,37 +1119,73 @@
         <v>0</v>
       </c>
       <c r="D3" t="s" s="11">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E3" t="n" s="12">
         <v>2.1200000000000045</v>
       </c>
       <c r="F3" t="s" s="14">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s" s="16">
         <v>0</v>
       </c>
-      <c r="G3" t="s" s="14">
-        <v>28</v>
-      </c>
-      <c r="H3" t="n" s="15">
+      <c r="H3" t="s" s="16">
+        <v>57</v>
+      </c>
+      <c r="I3" t="n" s="17">
+        <v>3.230000000000004</v>
+      </c>
+      <c r="J3" t="s" s="19">
+        <v>77</v>
+      </c>
+      <c r="K3" t="s" s="21">
+        <v>0</v>
+      </c>
+      <c r="L3" t="s" s="21">
+        <v>31</v>
+      </c>
+      <c r="M3" t="n" s="22">
         <v>2.1200000000000045</v>
       </c>
-      <c r="I3" t="s" s="17">
+      <c r="N3" t="s" s="24">
+        <v>89</v>
+      </c>
+      <c r="O3" t="s" s="26">
         <v>0</v>
       </c>
-      <c r="J3" t="s" s="17">
-        <v>28</v>
-      </c>
-      <c r="K3" t="n" s="18">
+      <c r="P3" t="s" s="26">
+        <v>90</v>
+      </c>
+      <c r="Q3" t="n" s="27">
+        <v>0.6099999999999994</v>
+      </c>
+      <c r="R3" t="s" s="29">
+        <v>109</v>
+      </c>
+      <c r="S3" t="s" s="31">
+        <v>0</v>
+      </c>
+      <c r="T3" t="s" s="31">
+        <v>31</v>
+      </c>
+      <c r="U3" t="n" s="32">
         <v>2.1200000000000045</v>
       </c>
-      <c r="L3" t="s" s="20">
+      <c r="V3" t="s" s="34">
+        <v>111</v>
+      </c>
+      <c r="W3" t="s" s="36">
         <v>0</v>
       </c>
-      <c r="M3" t="s" s="20">
-        <v>28</v>
-      </c>
-      <c r="N3" t="n" s="21">
-        <v>2.1200000000000045</v>
+      <c r="X3" t="s" s="36">
+        <v>57</v>
+      </c>
+      <c r="Y3" t="n" s="37">
+        <v>3.230000000000004</v>
+      </c>
+      <c r="Z3" t="s" s="39">
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -794,37 +1199,73 @@
         <v>1</v>
       </c>
       <c r="D4" t="s" s="11">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E4" t="n" s="12">
         <v>3.5700000000000003</v>
       </c>
       <c r="F4" t="s" s="14">
+        <v>56</v>
+      </c>
+      <c r="G4" t="s" s="16">
         <v>1</v>
       </c>
-      <c r="G4" t="s" s="14">
-        <v>29</v>
-      </c>
-      <c r="H4" t="n" s="15">
+      <c r="H4" t="s" s="16">
+        <v>58</v>
+      </c>
+      <c r="I4" t="n" s="17">
+        <v>1.1400000000000006</v>
+      </c>
+      <c r="J4" t="s" s="19">
+        <v>77</v>
+      </c>
+      <c r="K4" t="s" s="21">
+        <v>1</v>
+      </c>
+      <c r="L4" t="s" s="21">
+        <v>32</v>
+      </c>
+      <c r="M4" t="n" s="22">
         <v>3.5700000000000003</v>
       </c>
-      <c r="I4" t="s" s="17">
+      <c r="N4" t="s" s="24">
+        <v>89</v>
+      </c>
+      <c r="O4" t="s" s="26">
         <v>1</v>
       </c>
-      <c r="J4" t="s" s="17">
-        <v>29</v>
-      </c>
-      <c r="K4" t="n" s="18">
+      <c r="P4" t="s" s="26">
+        <v>91</v>
+      </c>
+      <c r="Q4" t="n" s="27">
+        <v>0.21000000000000085</v>
+      </c>
+      <c r="R4" t="s" s="29">
+        <v>109</v>
+      </c>
+      <c r="S4" t="s" s="31">
+        <v>1</v>
+      </c>
+      <c r="T4" t="s" s="31">
+        <v>32</v>
+      </c>
+      <c r="U4" t="n" s="32">
         <v>3.5700000000000003</v>
       </c>
-      <c r="L4" t="s" s="20">
+      <c r="V4" t="s" s="34">
+        <v>111</v>
+      </c>
+      <c r="W4" t="s" s="36">
         <v>1</v>
       </c>
-      <c r="M4" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="N4" t="n" s="21">
-        <v>3.5700000000000003</v>
+      <c r="X4" t="s" s="36">
+        <v>58</v>
+      </c>
+      <c r="Y4" t="n" s="37">
+        <v>1.1400000000000006</v>
+      </c>
+      <c r="Z4" t="s" s="39">
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -838,37 +1279,73 @@
         <v>2</v>
       </c>
       <c r="D5" t="s" s="11">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E5" t="n" s="12">
         <v>0.5399999999999991</v>
       </c>
       <c r="F5" t="s" s="14">
+        <v>56</v>
+      </c>
+      <c r="G5" t="s" s="16">
         <v>2</v>
       </c>
-      <c r="G5" t="s" s="14">
-        <v>30</v>
-      </c>
-      <c r="H5" t="n" s="15">
+      <c r="H5" t="s" s="16">
+        <v>59</v>
+      </c>
+      <c r="I5" t="n" s="17">
+        <v>3.34</v>
+      </c>
+      <c r="J5" t="s" s="19">
+        <v>77</v>
+      </c>
+      <c r="K5" t="s" s="21">
+        <v>2</v>
+      </c>
+      <c r="L5" t="s" s="21">
+        <v>33</v>
+      </c>
+      <c r="M5" t="n" s="22">
         <v>0.5399999999999991</v>
       </c>
-      <c r="I5" t="s" s="17">
+      <c r="N5" t="s" s="24">
+        <v>89</v>
+      </c>
+      <c r="O5" t="s" s="26">
         <v>2</v>
       </c>
-      <c r="J5" t="s" s="17">
-        <v>30</v>
-      </c>
-      <c r="K5" t="n" s="18">
+      <c r="P5" t="s" s="26">
+        <v>92</v>
+      </c>
+      <c r="Q5" t="n" s="27">
+        <v>0.4800000000000004</v>
+      </c>
+      <c r="R5" t="s" s="29">
+        <v>109</v>
+      </c>
+      <c r="S5" t="s" s="31">
+        <v>2</v>
+      </c>
+      <c r="T5" t="s" s="31">
+        <v>33</v>
+      </c>
+      <c r="U5" t="n" s="32">
         <v>0.5399999999999991</v>
       </c>
-      <c r="L5" t="s" s="20">
+      <c r="V5" t="s" s="34">
+        <v>111</v>
+      </c>
+      <c r="W5" t="s" s="36">
         <v>2</v>
       </c>
-      <c r="M5" t="s" s="20">
-        <v>30</v>
-      </c>
-      <c r="N5" t="n" s="21">
-        <v>0.5399999999999991</v>
+      <c r="X5" t="s" s="36">
+        <v>59</v>
+      </c>
+      <c r="Y5" t="n" s="37">
+        <v>3.34</v>
+      </c>
+      <c r="Z5" t="s" s="39">
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -882,37 +1359,73 @@
         <v>3</v>
       </c>
       <c r="D6" t="s" s="11">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E6" t="n" s="12">
         <v>3.599999999999998</v>
       </c>
       <c r="F6" t="s" s="14">
+        <v>56</v>
+      </c>
+      <c r="G6" t="s" s="16">
         <v>3</v>
       </c>
-      <c r="G6" t="s" s="14">
-        <v>31</v>
-      </c>
-      <c r="H6" t="n" s="15">
+      <c r="H6" t="s" s="16">
+        <v>60</v>
+      </c>
+      <c r="I6" t="n" s="17">
+        <v>2.6999999999999993</v>
+      </c>
+      <c r="J6" t="s" s="19">
+        <v>77</v>
+      </c>
+      <c r="K6" t="s" s="21">
+        <v>3</v>
+      </c>
+      <c r="L6" t="s" s="21">
+        <v>34</v>
+      </c>
+      <c r="M6" t="n" s="22">
         <v>3.599999999999998</v>
       </c>
-      <c r="I6" t="s" s="17">
+      <c r="N6" t="s" s="24">
+        <v>89</v>
+      </c>
+      <c r="O6" t="s" s="26">
         <v>3</v>
       </c>
-      <c r="J6" t="s" s="17">
-        <v>31</v>
-      </c>
-      <c r="K6" t="n" s="18">
+      <c r="P6" t="s" s="26">
+        <v>93</v>
+      </c>
+      <c r="Q6" t="n" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="R6" t="s" s="29">
+        <v>109</v>
+      </c>
+      <c r="S6" t="s" s="31">
+        <v>3</v>
+      </c>
+      <c r="T6" t="s" s="31">
+        <v>34</v>
+      </c>
+      <c r="U6" t="n" s="32">
         <v>3.599999999999998</v>
       </c>
-      <c r="L6" t="s" s="20">
+      <c r="V6" t="s" s="34">
+        <v>111</v>
+      </c>
+      <c r="W6" t="s" s="36">
         <v>3</v>
       </c>
-      <c r="M6" t="s" s="20">
-        <v>31</v>
-      </c>
-      <c r="N6" t="n" s="21">
-        <v>3.599999999999998</v>
+      <c r="X6" t="s" s="36">
+        <v>60</v>
+      </c>
+      <c r="Y6" t="n" s="37">
+        <v>2.6999999999999993</v>
+      </c>
+      <c r="Z6" t="s" s="39">
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -926,37 +1439,73 @@
         <v>4</v>
       </c>
       <c r="D7" t="s" s="11">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E7" t="n" s="12">
         <v>8.079999999999998</v>
       </c>
       <c r="F7" t="s" s="14">
+        <v>56</v>
+      </c>
+      <c r="G7" t="s" s="16">
         <v>4</v>
       </c>
-      <c r="G7" t="s" s="14">
-        <v>32</v>
-      </c>
-      <c r="H7" t="n" s="15">
+      <c r="H7" t="s" s="16">
+        <v>61</v>
+      </c>
+      <c r="I7" t="n" s="17">
+        <v>4.469999999999999</v>
+      </c>
+      <c r="J7" t="s" s="19">
+        <v>77</v>
+      </c>
+      <c r="K7" t="s" s="21">
+        <v>4</v>
+      </c>
+      <c r="L7" t="s" s="21">
+        <v>78</v>
+      </c>
+      <c r="M7" t="n" s="22">
+        <v>7.010000000000005</v>
+      </c>
+      <c r="N7" t="s" s="24">
+        <v>89</v>
+      </c>
+      <c r="O7" t="s" s="26">
+        <v>4</v>
+      </c>
+      <c r="P7" t="s" s="26">
+        <v>94</v>
+      </c>
+      <c r="Q7" t="n" s="27">
+        <v>2.25</v>
+      </c>
+      <c r="R7" t="s" s="29">
+        <v>109</v>
+      </c>
+      <c r="S7" t="s" s="31">
+        <v>4</v>
+      </c>
+      <c r="T7" t="s" s="31">
+        <v>35</v>
+      </c>
+      <c r="U7" t="n" s="32">
         <v>8.079999999999998</v>
       </c>
-      <c r="I7" t="s" s="17">
+      <c r="V7" t="s" s="34">
+        <v>111</v>
+      </c>
+      <c r="W7" t="s" s="36">
         <v>4</v>
       </c>
-      <c r="J7" t="s" s="17">
-        <v>32</v>
-      </c>
-      <c r="K7" t="n" s="18">
-        <v>8.079999999999998</v>
-      </c>
-      <c r="L7" t="s" s="20">
-        <v>4</v>
-      </c>
-      <c r="M7" t="s" s="20">
-        <v>32</v>
-      </c>
-      <c r="N7" t="n" s="21">
-        <v>8.079999999999998</v>
+      <c r="X7" t="s" s="36">
+        <v>61</v>
+      </c>
+      <c r="Y7" t="n" s="37">
+        <v>4.469999999999999</v>
+      </c>
+      <c r="Z7" t="s" s="39">
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -970,37 +1519,73 @@
         <v>5</v>
       </c>
       <c r="D8" t="s" s="11">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E8" t="n" s="12">
         <v>9.400000000000006</v>
       </c>
       <c r="F8" t="s" s="14">
+        <v>56</v>
+      </c>
+      <c r="G8" t="s" s="16">
         <v>5</v>
       </c>
-      <c r="G8" t="s" s="14">
-        <v>33</v>
-      </c>
-      <c r="H8" t="n" s="15">
+      <c r="H8" t="s" s="16">
+        <v>62</v>
+      </c>
+      <c r="I8" t="n" s="17">
+        <v>5.719999999999999</v>
+      </c>
+      <c r="J8" t="s" s="19">
+        <v>77</v>
+      </c>
+      <c r="K8" t="s" s="21">
+        <v>5</v>
+      </c>
+      <c r="L8" t="s" s="21">
+        <v>79</v>
+      </c>
+      <c r="M8" t="n" s="22">
+        <v>7.019999999999996</v>
+      </c>
+      <c r="N8" t="s" s="24">
+        <v>89</v>
+      </c>
+      <c r="O8" t="s" s="26">
+        <v>5</v>
+      </c>
+      <c r="P8" t="s" s="26">
+        <v>95</v>
+      </c>
+      <c r="Q8" t="n" s="27">
+        <v>5.659999999999997</v>
+      </c>
+      <c r="R8" t="s" s="29">
+        <v>109</v>
+      </c>
+      <c r="S8" t="s" s="31">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s" s="31">
+        <v>36</v>
+      </c>
+      <c r="U8" t="n" s="32">
         <v>9.400000000000006</v>
       </c>
-      <c r="I8" t="s" s="17">
+      <c r="V8" t="s" s="34">
+        <v>111</v>
+      </c>
+      <c r="W8" t="s" s="36">
         <v>5</v>
       </c>
-      <c r="J8" t="s" s="17">
-        <v>33</v>
-      </c>
-      <c r="K8" t="n" s="18">
-        <v>9.400000000000006</v>
-      </c>
-      <c r="L8" t="s" s="20">
-        <v>5</v>
-      </c>
-      <c r="M8" t="s" s="20">
-        <v>33</v>
-      </c>
-      <c r="N8" t="n" s="21">
-        <v>9.400000000000006</v>
+      <c r="X8" t="s" s="36">
+        <v>62</v>
+      </c>
+      <c r="Y8" t="n" s="37">
+        <v>5.719999999999999</v>
+      </c>
+      <c r="Z8" t="s" s="39">
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1014,37 +1599,73 @@
         <v>6</v>
       </c>
       <c r="D9" t="s" s="11">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E9" t="n" s="12">
         <v>13.789999999999992</v>
       </c>
       <c r="F9" t="s" s="14">
+        <v>56</v>
+      </c>
+      <c r="G9" t="s" s="16">
         <v>6</v>
       </c>
-      <c r="G9" t="s" s="14">
-        <v>34</v>
-      </c>
-      <c r="H9" t="n" s="15">
+      <c r="H9" t="s" s="16">
+        <v>63</v>
+      </c>
+      <c r="I9" t="n" s="17">
+        <v>9.86</v>
+      </c>
+      <c r="J9" t="s" s="19">
+        <v>77</v>
+      </c>
+      <c r="K9" t="s" s="21">
+        <v>6</v>
+      </c>
+      <c r="L9" t="s" s="21">
+        <v>80</v>
+      </c>
+      <c r="M9" t="n" s="22">
+        <v>11.819999999999993</v>
+      </c>
+      <c r="N9" t="s" s="24">
+        <v>89</v>
+      </c>
+      <c r="O9" t="s" s="26">
+        <v>6</v>
+      </c>
+      <c r="P9" t="s" s="26">
+        <v>96</v>
+      </c>
+      <c r="Q9" t="n" s="27">
+        <v>1.6899999999999977</v>
+      </c>
+      <c r="R9" t="s" s="29">
+        <v>109</v>
+      </c>
+      <c r="S9" t="s" s="31">
+        <v>6</v>
+      </c>
+      <c r="T9" t="s" s="31">
+        <v>37</v>
+      </c>
+      <c r="U9" t="n" s="32">
         <v>13.789999999999992</v>
       </c>
-      <c r="I9" t="s" s="17">
+      <c r="V9" t="s" s="34">
+        <v>111</v>
+      </c>
+      <c r="W9" t="s" s="36">
         <v>6</v>
       </c>
-      <c r="J9" t="s" s="17">
-        <v>34</v>
-      </c>
-      <c r="K9" t="n" s="18">
-        <v>13.789999999999992</v>
-      </c>
-      <c r="L9" t="s" s="20">
-        <v>6</v>
-      </c>
-      <c r="M9" t="s" s="20">
-        <v>34</v>
-      </c>
-      <c r="N9" t="n" s="21">
-        <v>13.789999999999992</v>
+      <c r="X9" t="s" s="36">
+        <v>63</v>
+      </c>
+      <c r="Y9" t="n" s="37">
+        <v>9.86</v>
+      </c>
+      <c r="Z9" t="s" s="39">
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1058,37 +1679,73 @@
         <v>7</v>
       </c>
       <c r="D10" t="s" s="11">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E10" t="n" s="12">
         <v>0.8900000000000006</v>
       </c>
       <c r="F10" t="s" s="14">
+        <v>56</v>
+      </c>
+      <c r="G10" t="s" s="16">
         <v>7</v>
       </c>
-      <c r="G10" t="s" s="14">
-        <v>35</v>
-      </c>
-      <c r="H10" t="n" s="15">
+      <c r="H10" t="s" s="16">
+        <v>64</v>
+      </c>
+      <c r="I10" t="n" s="17">
+        <v>0.6999999999999957</v>
+      </c>
+      <c r="J10" t="s" s="19">
+        <v>77</v>
+      </c>
+      <c r="K10" t="s" s="21">
+        <v>7</v>
+      </c>
+      <c r="L10" t="s" s="21">
+        <v>81</v>
+      </c>
+      <c r="M10" t="n" s="22">
+        <v>0.12000000000000455</v>
+      </c>
+      <c r="N10" t="s" s="24">
+        <v>89</v>
+      </c>
+      <c r="O10" t="s" s="26">
+        <v>7</v>
+      </c>
+      <c r="P10" t="s" s="26">
+        <v>97</v>
+      </c>
+      <c r="Q10" t="n" s="27">
+        <v>56.510000000000005</v>
+      </c>
+      <c r="R10" t="s" s="29">
+        <v>109</v>
+      </c>
+      <c r="S10" t="s" s="31">
+        <v>7</v>
+      </c>
+      <c r="T10" t="s" s="31">
+        <v>38</v>
+      </c>
+      <c r="U10" t="n" s="32">
         <v>0.8900000000000006</v>
       </c>
-      <c r="I10" t="s" s="17">
+      <c r="V10" t="s" s="34">
+        <v>111</v>
+      </c>
+      <c r="W10" t="s" s="36">
         <v>7</v>
       </c>
-      <c r="J10" t="s" s="17">
-        <v>35</v>
-      </c>
-      <c r="K10" t="n" s="18">
-        <v>0.8900000000000006</v>
-      </c>
-      <c r="L10" t="s" s="20">
-        <v>7</v>
-      </c>
-      <c r="M10" t="s" s="20">
-        <v>35</v>
-      </c>
-      <c r="N10" t="n" s="21">
-        <v>0.8900000000000006</v>
+      <c r="X10" t="s" s="36">
+        <v>64</v>
+      </c>
+      <c r="Y10" t="n" s="37">
+        <v>0.6999999999999957</v>
+      </c>
+      <c r="Z10" t="s" s="39">
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1102,37 +1759,73 @@
         <v>8</v>
       </c>
       <c r="D11" t="s" s="11">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E11" t="n" s="12">
         <v>55.220000000000006</v>
       </c>
       <c r="F11" t="s" s="14">
+        <v>56</v>
+      </c>
+      <c r="G11" t="s" s="16">
         <v>8</v>
       </c>
-      <c r="G11" t="s" s="14">
-        <v>36</v>
-      </c>
-      <c r="H11" t="n" s="15">
+      <c r="H11" t="s" s="16">
+        <v>65</v>
+      </c>
+      <c r="I11" t="n" s="17">
+        <v>1.1700000000000017</v>
+      </c>
+      <c r="J11" t="s" s="19">
+        <v>77</v>
+      </c>
+      <c r="K11" t="s" s="21">
+        <v>8</v>
+      </c>
+      <c r="L11" t="s" s="21">
+        <v>82</v>
+      </c>
+      <c r="M11" t="n" s="22">
+        <v>1.9299999999999997</v>
+      </c>
+      <c r="N11" t="s" s="24">
+        <v>89</v>
+      </c>
+      <c r="O11" t="s" s="26">
+        <v>8</v>
+      </c>
+      <c r="P11" t="s" s="26">
+        <v>98</v>
+      </c>
+      <c r="Q11" t="n" s="27">
+        <v>94.91</v>
+      </c>
+      <c r="R11" t="s" s="29">
+        <v>109</v>
+      </c>
+      <c r="S11" t="s" s="31">
+        <v>8</v>
+      </c>
+      <c r="T11" t="s" s="31">
+        <v>39</v>
+      </c>
+      <c r="U11" t="n" s="32">
         <v>55.220000000000006</v>
       </c>
-      <c r="I11" t="s" s="17">
+      <c r="V11" t="s" s="34">
+        <v>111</v>
+      </c>
+      <c r="W11" t="s" s="36">
         <v>8</v>
       </c>
-      <c r="J11" t="s" s="17">
-        <v>36</v>
-      </c>
-      <c r="K11" t="n" s="18">
-        <v>55.220000000000006</v>
-      </c>
-      <c r="L11" t="s" s="20">
-        <v>8</v>
-      </c>
-      <c r="M11" t="s" s="20">
-        <v>36</v>
-      </c>
-      <c r="N11" t="n" s="21">
-        <v>55.220000000000006</v>
+      <c r="X11" t="s" s="36">
+        <v>65</v>
+      </c>
+      <c r="Y11" t="n" s="37">
+        <v>1.1700000000000017</v>
+      </c>
+      <c r="Z11" t="s" s="39">
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1146,37 +1839,73 @@
         <v>9</v>
       </c>
       <c r="D12" t="s" s="11">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E12" t="n" s="12">
         <v>59.58</v>
       </c>
       <c r="F12" t="s" s="14">
+        <v>56</v>
+      </c>
+      <c r="G12" t="s" s="16">
         <v>9</v>
       </c>
-      <c r="G12" t="s" s="14">
-        <v>37</v>
-      </c>
-      <c r="H12" t="n" s="15">
+      <c r="H12" t="s" s="16">
+        <v>66</v>
+      </c>
+      <c r="I12" t="n" s="17">
+        <v>2.0000000000000036</v>
+      </c>
+      <c r="J12" t="s" s="19">
+        <v>77</v>
+      </c>
+      <c r="K12" t="s" s="21">
+        <v>9</v>
+      </c>
+      <c r="L12" t="s" s="21">
+        <v>83</v>
+      </c>
+      <c r="M12" t="n" s="22">
+        <v>3.169999999999998</v>
+      </c>
+      <c r="N12" t="s" s="24">
+        <v>89</v>
+      </c>
+      <c r="O12" t="s" s="26">
+        <v>9</v>
+      </c>
+      <c r="P12" t="s" s="26">
+        <v>99</v>
+      </c>
+      <c r="Q12" t="n" s="27">
+        <v>100.93</v>
+      </c>
+      <c r="R12" t="s" s="29">
+        <v>109</v>
+      </c>
+      <c r="S12" t="s" s="31">
+        <v>9</v>
+      </c>
+      <c r="T12" t="s" s="31">
+        <v>40</v>
+      </c>
+      <c r="U12" t="n" s="32">
         <v>59.58</v>
       </c>
-      <c r="I12" t="s" s="17">
+      <c r="V12" t="s" s="34">
+        <v>111</v>
+      </c>
+      <c r="W12" t="s" s="36">
         <v>9</v>
       </c>
-      <c r="J12" t="s" s="17">
-        <v>37</v>
-      </c>
-      <c r="K12" t="n" s="18">
-        <v>59.58</v>
-      </c>
-      <c r="L12" t="s" s="20">
-        <v>9</v>
-      </c>
-      <c r="M12" t="s" s="20">
-        <v>37</v>
-      </c>
-      <c r="N12" t="n" s="21">
-        <v>59.58</v>
+      <c r="X12" t="s" s="36">
+        <v>66</v>
+      </c>
+      <c r="Y12" t="n" s="37">
+        <v>2.0000000000000036</v>
+      </c>
+      <c r="Z12" t="s" s="39">
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1190,37 +1919,73 @@
         <v>10</v>
       </c>
       <c r="D13" t="s" s="11">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E13" t="n" s="12">
         <v>57.49</v>
       </c>
       <c r="F13" t="s" s="14">
+        <v>56</v>
+      </c>
+      <c r="G13" t="s" s="16">
         <v>10</v>
       </c>
-      <c r="G13" t="s" s="14">
-        <v>38</v>
-      </c>
-      <c r="H13" t="n" s="15">
+      <c r="H13" t="s" s="16">
+        <v>67</v>
+      </c>
+      <c r="I13" t="n" s="17">
+        <v>1.0899999999999999</v>
+      </c>
+      <c r="J13" t="s" s="19">
+        <v>77</v>
+      </c>
+      <c r="K13" t="s" s="21">
+        <v>10</v>
+      </c>
+      <c r="L13" t="s" s="21">
+        <v>84</v>
+      </c>
+      <c r="M13" t="n" s="22">
+        <v>0.1599999999999966</v>
+      </c>
+      <c r="N13" t="s" s="24">
+        <v>89</v>
+      </c>
+      <c r="O13" t="s" s="26">
+        <v>10</v>
+      </c>
+      <c r="P13" t="s" s="26">
+        <v>100</v>
+      </c>
+      <c r="Q13" t="n" s="27">
+        <v>78.64000000000001</v>
+      </c>
+      <c r="R13" t="s" s="29">
+        <v>109</v>
+      </c>
+      <c r="S13" t="s" s="31">
+        <v>10</v>
+      </c>
+      <c r="T13" t="s" s="31">
+        <v>41</v>
+      </c>
+      <c r="U13" t="n" s="32">
         <v>57.49</v>
       </c>
-      <c r="I13" t="s" s="17">
+      <c r="V13" t="s" s="34">
+        <v>111</v>
+      </c>
+      <c r="W13" t="s" s="36">
         <v>10</v>
       </c>
-      <c r="J13" t="s" s="17">
-        <v>38</v>
-      </c>
-      <c r="K13" t="n" s="18">
-        <v>57.49</v>
-      </c>
-      <c r="L13" t="s" s="20">
-        <v>10</v>
-      </c>
-      <c r="M13" t="s" s="20">
-        <v>38</v>
-      </c>
-      <c r="N13" t="n" s="21">
-        <v>57.49</v>
+      <c r="X13" t="s" s="36">
+        <v>67</v>
+      </c>
+      <c r="Y13" t="n" s="37">
+        <v>1.0899999999999999</v>
+      </c>
+      <c r="Z13" t="s" s="39">
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1234,37 +1999,73 @@
         <v>11</v>
       </c>
       <c r="D14" t="s" s="11">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E14" t="n" s="12">
         <v>5.609999999999999</v>
       </c>
       <c r="F14" t="s" s="14">
+        <v>56</v>
+      </c>
+      <c r="G14" t="s" s="16">
         <v>11</v>
       </c>
-      <c r="G14" t="s" s="14">
-        <v>39</v>
-      </c>
-      <c r="H14" t="n" s="15">
+      <c r="H14" t="s" s="16">
+        <v>68</v>
+      </c>
+      <c r="I14" t="n" s="17">
+        <v>0.7099999999999937</v>
+      </c>
+      <c r="J14" t="s" s="19">
+        <v>77</v>
+      </c>
+      <c r="K14" t="s" s="21">
+        <v>11</v>
+      </c>
+      <c r="L14" t="s" s="21">
+        <v>85</v>
+      </c>
+      <c r="M14" t="n" s="22">
+        <v>3.030000000000001</v>
+      </c>
+      <c r="N14" t="s" s="24">
+        <v>89</v>
+      </c>
+      <c r="O14" t="s" s="26">
+        <v>11</v>
+      </c>
+      <c r="P14" t="s" s="26">
+        <v>101</v>
+      </c>
+      <c r="Q14" t="n" s="27">
+        <v>0.9299999999999926</v>
+      </c>
+      <c r="R14" t="s" s="29">
+        <v>109</v>
+      </c>
+      <c r="S14" t="s" s="31">
+        <v>11</v>
+      </c>
+      <c r="T14" t="s" s="31">
+        <v>42</v>
+      </c>
+      <c r="U14" t="n" s="32">
         <v>5.609999999999999</v>
       </c>
-      <c r="I14" t="s" s="17">
+      <c r="V14" t="s" s="34">
+        <v>111</v>
+      </c>
+      <c r="W14" t="s" s="36">
         <v>11</v>
       </c>
-      <c r="J14" t="s" s="17">
-        <v>39</v>
-      </c>
-      <c r="K14" t="n" s="18">
-        <v>5.609999999999999</v>
-      </c>
-      <c r="L14" t="s" s="20">
-        <v>11</v>
-      </c>
-      <c r="M14" t="s" s="20">
-        <v>39</v>
-      </c>
-      <c r="N14" t="n" s="21">
-        <v>5.609999999999999</v>
+      <c r="X14" t="s" s="36">
+        <v>68</v>
+      </c>
+      <c r="Y14" t="n" s="37">
+        <v>0.7099999999999937</v>
+      </c>
+      <c r="Z14" t="s" s="39">
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1278,37 +2079,73 @@
         <v>12</v>
       </c>
       <c r="D15" t="s" s="11">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E15" t="n" s="12">
         <v>4.079999999999998</v>
       </c>
       <c r="F15" t="s" s="14">
+        <v>56</v>
+      </c>
+      <c r="G15" t="s" s="16">
         <v>12</v>
       </c>
-      <c r="G15" t="s" s="14">
-        <v>40</v>
-      </c>
-      <c r="H15" t="n" s="15">
+      <c r="H15" t="s" s="16">
+        <v>69</v>
+      </c>
+      <c r="I15" t="n" s="17">
+        <v>1.2099999999999937</v>
+      </c>
+      <c r="J15" t="s" s="19">
+        <v>77</v>
+      </c>
+      <c r="K15" t="s" s="21">
+        <v>12</v>
+      </c>
+      <c r="L15" t="s" s="21">
+        <v>86</v>
+      </c>
+      <c r="M15" t="n" s="22">
+        <v>3.049999999999997</v>
+      </c>
+      <c r="N15" t="s" s="24">
+        <v>89</v>
+      </c>
+      <c r="O15" t="s" s="26">
+        <v>12</v>
+      </c>
+      <c r="P15" t="s" s="26">
+        <v>102</v>
+      </c>
+      <c r="Q15" t="n" s="27">
+        <v>1.230000000000004</v>
+      </c>
+      <c r="R15" t="s" s="29">
+        <v>109</v>
+      </c>
+      <c r="S15" t="s" s="31">
+        <v>12</v>
+      </c>
+      <c r="T15" t="s" s="31">
+        <v>43</v>
+      </c>
+      <c r="U15" t="n" s="32">
         <v>4.079999999999998</v>
       </c>
-      <c r="I15" t="s" s="17">
+      <c r="V15" t="s" s="34">
+        <v>111</v>
+      </c>
+      <c r="W15" t="s" s="36">
         <v>12</v>
       </c>
-      <c r="J15" t="s" s="17">
-        <v>40</v>
-      </c>
-      <c r="K15" t="n" s="18">
-        <v>4.079999999999998</v>
-      </c>
-      <c r="L15" t="s" s="20">
-        <v>12</v>
-      </c>
-      <c r="M15" t="s" s="20">
-        <v>40</v>
-      </c>
-      <c r="N15" t="n" s="21">
-        <v>4.079999999999998</v>
+      <c r="X15" t="s" s="36">
+        <v>69</v>
+      </c>
+      <c r="Y15" t="n" s="37">
+        <v>1.2099999999999937</v>
+      </c>
+      <c r="Z15" t="s" s="39">
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1322,37 +2159,73 @@
         <v>13</v>
       </c>
       <c r="D16" t="s" s="11">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E16" t="n" s="12">
         <v>3.770000000000003</v>
       </c>
       <c r="F16" t="s" s="14">
+        <v>56</v>
+      </c>
+      <c r="G16" t="s" s="16">
         <v>13</v>
       </c>
-      <c r="G16" t="s" s="14">
-        <v>41</v>
-      </c>
-      <c r="H16" t="n" s="15">
+      <c r="H16" t="s" s="16">
+        <v>70</v>
+      </c>
+      <c r="I16" t="n" s="17">
+        <v>3.4200000000000017</v>
+      </c>
+      <c r="J16" t="s" s="19">
+        <v>77</v>
+      </c>
+      <c r="K16" t="s" s="21">
+        <v>13</v>
+      </c>
+      <c r="L16" t="s" s="21">
+        <v>87</v>
+      </c>
+      <c r="M16" t="n" s="22">
+        <v>2.1500000000000057</v>
+      </c>
+      <c r="N16" t="s" s="24">
+        <v>89</v>
+      </c>
+      <c r="O16" t="s" s="26">
+        <v>13</v>
+      </c>
+      <c r="P16" t="s" s="26">
+        <v>103</v>
+      </c>
+      <c r="Q16" t="n" s="27">
+        <v>13.39</v>
+      </c>
+      <c r="R16" t="s" s="29">
+        <v>109</v>
+      </c>
+      <c r="S16" t="s" s="31">
+        <v>13</v>
+      </c>
+      <c r="T16" t="s" s="31">
+        <v>44</v>
+      </c>
+      <c r="U16" t="n" s="32">
         <v>3.770000000000003</v>
       </c>
-      <c r="I16" t="s" s="17">
+      <c r="V16" t="s" s="34">
+        <v>111</v>
+      </c>
+      <c r="W16" t="s" s="36">
         <v>13</v>
       </c>
-      <c r="J16" t="s" s="17">
-        <v>41</v>
-      </c>
-      <c r="K16" t="n" s="18">
-        <v>3.770000000000003</v>
-      </c>
-      <c r="L16" t="s" s="20">
-        <v>13</v>
-      </c>
-      <c r="M16" t="s" s="20">
-        <v>41</v>
-      </c>
-      <c r="N16" t="n" s="21">
-        <v>3.770000000000003</v>
+      <c r="X16" t="s" s="36">
+        <v>70</v>
+      </c>
+      <c r="Y16" t="n" s="37">
+        <v>3.4200000000000017</v>
+      </c>
+      <c r="Z16" t="s" s="39">
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1366,37 +2239,73 @@
         <v>14</v>
       </c>
       <c r="D17" t="s" s="11">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E17" t="n" s="12">
         <v>4.240000000000002</v>
       </c>
       <c r="F17" t="s" s="14">
+        <v>56</v>
+      </c>
+      <c r="G17" t="s" s="16">
         <v>14</v>
       </c>
-      <c r="G17" t="s" s="14">
-        <v>42</v>
-      </c>
-      <c r="H17" t="n" s="15">
+      <c r="H17" t="s" s="16">
+        <v>71</v>
+      </c>
+      <c r="I17" t="n" s="17">
+        <v>3.8599999999999994</v>
+      </c>
+      <c r="J17" t="s" s="19">
+        <v>77</v>
+      </c>
+      <c r="K17" t="s" s="21">
+        <v>14</v>
+      </c>
+      <c r="L17" t="s" s="21">
+        <v>88</v>
+      </c>
+      <c r="M17" t="n" s="22">
+        <v>2.4299999999999997</v>
+      </c>
+      <c r="N17" t="s" s="24">
+        <v>89</v>
+      </c>
+      <c r="O17" t="s" s="26">
+        <v>14</v>
+      </c>
+      <c r="P17" t="s" s="26">
+        <v>104</v>
+      </c>
+      <c r="Q17" t="n" s="27">
+        <v>15.080000000000005</v>
+      </c>
+      <c r="R17" t="s" s="29">
+        <v>109</v>
+      </c>
+      <c r="S17" t="s" s="31">
+        <v>14</v>
+      </c>
+      <c r="T17" t="s" s="31">
+        <v>45</v>
+      </c>
+      <c r="U17" t="n" s="32">
         <v>4.240000000000002</v>
       </c>
-      <c r="I17" t="s" s="17">
+      <c r="V17" t="s" s="34">
+        <v>111</v>
+      </c>
+      <c r="W17" t="s" s="36">
         <v>14</v>
       </c>
-      <c r="J17" t="s" s="17">
-        <v>42</v>
-      </c>
-      <c r="K17" t="n" s="18">
-        <v>4.240000000000002</v>
-      </c>
-      <c r="L17" t="s" s="20">
-        <v>14</v>
-      </c>
-      <c r="M17" t="s" s="20">
-        <v>42</v>
-      </c>
-      <c r="N17" t="n" s="21">
-        <v>4.240000000000002</v>
+      <c r="X17" t="s" s="36">
+        <v>71</v>
+      </c>
+      <c r="Y17" t="n" s="37">
+        <v>3.8599999999999994</v>
+      </c>
+      <c r="Z17" t="s" s="39">
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1410,37 +2319,73 @@
         <v>15</v>
       </c>
       <c r="D18" t="s" s="11">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E18" t="n" s="12">
         <v>3.770000000000003</v>
       </c>
       <c r="F18" t="s" s="14">
+        <v>56</v>
+      </c>
+      <c r="G18" t="s" s="16">
         <v>15</v>
       </c>
-      <c r="G18" t="s" s="14">
-        <v>41</v>
-      </c>
-      <c r="H18" t="n" s="15">
+      <c r="H18" t="s" s="16">
+        <v>70</v>
+      </c>
+      <c r="I18" t="n" s="17">
+        <v>3.4200000000000017</v>
+      </c>
+      <c r="J18" t="s" s="19">
+        <v>77</v>
+      </c>
+      <c r="K18" t="s" s="21">
+        <v>15</v>
+      </c>
+      <c r="L18" t="s" s="21">
+        <v>87</v>
+      </c>
+      <c r="M18" t="n" s="22">
+        <v>2.1500000000000057</v>
+      </c>
+      <c r="N18" t="s" s="24">
+        <v>89</v>
+      </c>
+      <c r="O18" t="s" s="26">
+        <v>15</v>
+      </c>
+      <c r="P18" t="s" s="26">
+        <v>103</v>
+      </c>
+      <c r="Q18" t="n" s="27">
+        <v>13.39</v>
+      </c>
+      <c r="R18" t="s" s="29">
+        <v>109</v>
+      </c>
+      <c r="S18" t="s" s="31">
+        <v>15</v>
+      </c>
+      <c r="T18" t="s" s="31">
+        <v>44</v>
+      </c>
+      <c r="U18" t="n" s="32">
         <v>3.770000000000003</v>
       </c>
-      <c r="I18" t="s" s="17">
+      <c r="V18" t="s" s="34">
+        <v>111</v>
+      </c>
+      <c r="W18" t="s" s="36">
         <v>15</v>
       </c>
-      <c r="J18" t="s" s="17">
-        <v>41</v>
-      </c>
-      <c r="K18" t="n" s="18">
-        <v>3.770000000000003</v>
-      </c>
-      <c r="L18" t="s" s="20">
-        <v>15</v>
-      </c>
-      <c r="M18" t="s" s="20">
-        <v>41</v>
-      </c>
-      <c r="N18" t="n" s="21">
-        <v>3.770000000000003</v>
+      <c r="X18" t="s" s="36">
+        <v>70</v>
+      </c>
+      <c r="Y18" t="n" s="37">
+        <v>3.4200000000000017</v>
+      </c>
+      <c r="Z18" t="s" s="39">
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1454,37 +2399,73 @@
         <v>16</v>
       </c>
       <c r="D19" t="s" s="11">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E19" t="n" s="12">
         <v>4.240000000000002</v>
       </c>
       <c r="F19" t="s" s="14">
+        <v>56</v>
+      </c>
+      <c r="G19" t="s" s="16">
         <v>16</v>
       </c>
-      <c r="G19" t="s" s="14">
-        <v>42</v>
-      </c>
-      <c r="H19" t="n" s="15">
+      <c r="H19" t="s" s="16">
+        <v>71</v>
+      </c>
+      <c r="I19" t="n" s="17">
+        <v>3.8599999999999994</v>
+      </c>
+      <c r="J19" t="s" s="19">
+        <v>77</v>
+      </c>
+      <c r="K19" t="s" s="21">
+        <v>16</v>
+      </c>
+      <c r="L19" t="s" s="21">
+        <v>88</v>
+      </c>
+      <c r="M19" t="n" s="22">
+        <v>2.4299999999999997</v>
+      </c>
+      <c r="N19" t="s" s="24">
+        <v>89</v>
+      </c>
+      <c r="O19" t="s" s="26">
+        <v>16</v>
+      </c>
+      <c r="P19" t="s" s="26">
+        <v>104</v>
+      </c>
+      <c r="Q19" t="n" s="27">
+        <v>15.080000000000005</v>
+      </c>
+      <c r="R19" t="s" s="29">
+        <v>109</v>
+      </c>
+      <c r="S19" t="s" s="31">
+        <v>16</v>
+      </c>
+      <c r="T19" t="s" s="31">
+        <v>45</v>
+      </c>
+      <c r="U19" t="n" s="32">
         <v>4.240000000000002</v>
       </c>
-      <c r="I19" t="s" s="17">
+      <c r="V19" t="s" s="34">
+        <v>111</v>
+      </c>
+      <c r="W19" t="s" s="36">
         <v>16</v>
       </c>
-      <c r="J19" t="s" s="17">
-        <v>42</v>
-      </c>
-      <c r="K19" t="n" s="18">
-        <v>4.240000000000002</v>
-      </c>
-      <c r="L19" t="s" s="20">
-        <v>16</v>
-      </c>
-      <c r="M19" t="s" s="20">
-        <v>42</v>
-      </c>
-      <c r="N19" t="n" s="21">
-        <v>4.240000000000002</v>
+      <c r="X19" t="s" s="36">
+        <v>71</v>
+      </c>
+      <c r="Y19" t="n" s="37">
+        <v>3.8599999999999994</v>
+      </c>
+      <c r="Z19" t="s" s="39">
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1498,37 +2479,73 @@
         <v>17</v>
       </c>
       <c r="D20" t="s" s="11">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E20" t="s" s="12">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F20" t="s" s="14">
+        <v>56</v>
+      </c>
+      <c r="G20" t="s" s="16">
         <v>17</v>
       </c>
-      <c r="G20" t="s" s="14">
-        <v>43</v>
-      </c>
-      <c r="H20" t="s" s="15">
-        <v>50</v>
+      <c r="H20" t="s" s="16">
+        <v>72</v>
       </c>
       <c r="I20" t="s" s="17">
+        <v>53</v>
+      </c>
+      <c r="J20" t="s" s="19">
+        <v>77</v>
+      </c>
+      <c r="K20" t="s" s="21">
         <v>17</v>
       </c>
-      <c r="J20" t="s" s="17">
-        <v>43</v>
-      </c>
-      <c r="K20" t="s" s="18">
-        <v>50</v>
-      </c>
-      <c r="L20" t="s" s="20">
+      <c r="L20" t="s" s="21">
+        <v>46</v>
+      </c>
+      <c r="M20" t="s" s="22">
+        <v>53</v>
+      </c>
+      <c r="N20" t="s" s="24">
+        <v>89</v>
+      </c>
+      <c r="O20" t="s" s="26">
         <v>17</v>
       </c>
-      <c r="M20" t="s" s="20">
-        <v>43</v>
-      </c>
-      <c r="N20" t="s" s="21">
-        <v>50</v>
+      <c r="P20" t="s" s="26">
+        <v>18</v>
+      </c>
+      <c r="Q20" t="s" s="27">
+        <v>54</v>
+      </c>
+      <c r="R20" t="s" s="29">
+        <v>109</v>
+      </c>
+      <c r="S20" t="s" s="31">
+        <v>17</v>
+      </c>
+      <c r="T20" t="s" s="31">
+        <v>46</v>
+      </c>
+      <c r="U20" t="s" s="32">
+        <v>53</v>
+      </c>
+      <c r="V20" t="s" s="34">
+        <v>111</v>
+      </c>
+      <c r="W20" t="s" s="36">
+        <v>17</v>
+      </c>
+      <c r="X20" t="s" s="36">
+        <v>72</v>
+      </c>
+      <c r="Y20" t="s" s="37">
+        <v>53</v>
+      </c>
+      <c r="Z20" t="s" s="39">
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1545,210 +2562,424 @@
         <v>20</v>
       </c>
       <c r="E21" t="s" s="12">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F21" t="s" s="14">
+        <v>56</v>
+      </c>
+      <c r="G21" t="s" s="16">
         <v>19</v>
       </c>
-      <c r="G21" t="s" s="14">
+      <c r="H21" t="s" s="16">
         <v>20</v>
       </c>
-      <c r="H21" t="s" s="15">
-        <v>51</v>
-      </c>
       <c r="I21" t="s" s="17">
+        <v>54</v>
+      </c>
+      <c r="J21" t="s" s="19">
+        <v>77</v>
+      </c>
+      <c r="K21" t="s" s="21">
         <v>19</v>
       </c>
-      <c r="J21" t="s" s="17">
+      <c r="L21" t="s" s="21">
         <v>20</v>
       </c>
-      <c r="K21" t="s" s="18">
-        <v>51</v>
-      </c>
-      <c r="L21" t="s" s="20">
+      <c r="M21" t="s" s="22">
+        <v>54</v>
+      </c>
+      <c r="N21" t="s" s="24">
+        <v>89</v>
+      </c>
+      <c r="O21" t="s" s="26">
         <v>19</v>
       </c>
-      <c r="M21" t="s" s="20">
+      <c r="P21" t="s" s="26">
         <v>20</v>
       </c>
-      <c r="N21" t="s" s="21">
-        <v>51</v>
+      <c r="Q21" t="s" s="27">
+        <v>54</v>
+      </c>
+      <c r="R21" t="s" s="29">
+        <v>109</v>
+      </c>
+      <c r="S21" t="s" s="31">
+        <v>19</v>
+      </c>
+      <c r="T21" t="s" s="31">
+        <v>20</v>
+      </c>
+      <c r="U21" t="s" s="32">
+        <v>54</v>
+      </c>
+      <c r="V21" t="s" s="34">
+        <v>111</v>
+      </c>
+      <c r="W21" t="s" s="36">
+        <v>19</v>
+      </c>
+      <c r="X21" t="s" s="36">
+        <v>20</v>
+      </c>
+      <c r="Y21" t="s" s="37">
+        <v>54</v>
+      </c>
+      <c r="Z21" t="s" s="39">
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="4">
-        <v>92.12</v>
-      </c>
+      <c r="A22" s="3"/>
+      <c r="B22" s="4"/>
       <c r="C22" t="s" s="11">
-        <v>21</v>
-      </c>
-      <c r="D22" t="s" s="11">
-        <v>45</v>
-      </c>
-      <c r="E22" t="n" s="12">
-        <v>5.009999999999991</v>
-      </c>
-      <c r="F22" t="s" s="14">
-        <v>21</v>
-      </c>
-      <c r="G22" t="s" s="14">
-        <v>45</v>
-      </c>
-      <c r="H22" t="n" s="15">
-        <v>5.009999999999991</v>
-      </c>
-      <c r="I22" t="s" s="17">
-        <v>21</v>
-      </c>
-      <c r="J22" t="s" s="17">
-        <v>45</v>
-      </c>
-      <c r="K22" t="n" s="18">
-        <v>5.009999999999991</v>
-      </c>
-      <c r="L22" t="s" s="20">
-        <v>21</v>
-      </c>
-      <c r="M22" t="s" s="20">
-        <v>45</v>
-      </c>
-      <c r="N22" t="n" s="21">
-        <v>5.009999999999991</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22" t="s" s="16">
+        <v>47</v>
+      </c>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22" t="s" s="21">
+        <v>47</v>
+      </c>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22" t="s" s="26">
+        <v>47</v>
+      </c>
+      <c r="Q22"/>
+      <c r="R22"/>
+      <c r="S22" t="s" s="31">
+        <v>47</v>
+      </c>
+      <c r="U22"/>
+      <c r="V22"/>
+      <c r="W22" t="s" s="36">
+        <v>47</v>
+      </c>
+      <c r="Y22"/>
+      <c r="Z22"/>
     </row>
     <row r="23" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="4">
-        <v>50.84</v>
+        <v>92.12</v>
       </c>
       <c r="C23" t="s" s="11">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D23" t="s" s="11">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E23" t="n" s="12">
-        <v>2.969999999999999</v>
+        <v>5.009999999999991</v>
       </c>
       <c r="F23" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="G23" t="s" s="14">
-        <v>46</v>
-      </c>
-      <c r="H23" t="n" s="15">
-        <v>2.969999999999999</v>
-      </c>
-      <c r="I23" t="s" s="17">
-        <v>22</v>
-      </c>
-      <c r="J23" t="s" s="17">
-        <v>46</v>
-      </c>
-      <c r="K23" t="n" s="18">
-        <v>2.969999999999999</v>
-      </c>
-      <c r="L23" t="s" s="20">
-        <v>22</v>
-      </c>
-      <c r="M23" t="s" s="20">
-        <v>46</v>
-      </c>
-      <c r="N23" t="n" s="21">
-        <v>2.969999999999999</v>
+        <v>56</v>
+      </c>
+      <c r="G23" t="s" s="16">
+        <v>21</v>
+      </c>
+      <c r="H23" t="s" s="16">
+        <v>73</v>
+      </c>
+      <c r="I23" t="n" s="17">
+        <v>1.1300000000000097</v>
+      </c>
+      <c r="J23" t="s" s="19">
+        <v>77</v>
+      </c>
+      <c r="K23" t="s" s="21">
+        <v>21</v>
+      </c>
+      <c r="L23" t="s" s="21">
+        <v>48</v>
+      </c>
+      <c r="M23" t="n" s="22">
+        <v>5.009999999999991</v>
+      </c>
+      <c r="N23" t="s" s="24">
+        <v>89</v>
+      </c>
+      <c r="O23" t="s" s="26">
+        <v>21</v>
+      </c>
+      <c r="P23" t="s" s="26">
+        <v>105</v>
+      </c>
+      <c r="Q23" t="n" s="27">
+        <v>1.0899999999999892</v>
+      </c>
+      <c r="R23" t="s" s="29">
+        <v>109</v>
+      </c>
+      <c r="S23" t="s" s="31">
+        <v>21</v>
+      </c>
+      <c r="T23" t="s" s="31">
+        <v>48</v>
+      </c>
+      <c r="U23" t="n" s="32">
+        <v>5.009999999999991</v>
+      </c>
+      <c r="V23" t="s" s="34">
+        <v>111</v>
+      </c>
+      <c r="W23" t="s" s="36">
+        <v>21</v>
+      </c>
+      <c r="X23" t="s" s="36">
+        <v>73</v>
+      </c>
+      <c r="Y23" t="n" s="37">
+        <v>1.1300000000000097</v>
+      </c>
+      <c r="Z23" t="s" s="39">
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="4">
+        <v>50.84</v>
+      </c>
+      <c r="C24" t="s" s="11">
+        <v>22</v>
+      </c>
+      <c r="D24" t="s" s="11">
+        <v>49</v>
+      </c>
+      <c r="E24" t="n" s="12">
+        <v>2.969999999999999</v>
+      </c>
+      <c r="F24" t="s" s="14">
+        <v>56</v>
+      </c>
+      <c r="G24" t="s" s="16">
+        <v>22</v>
+      </c>
+      <c r="H24" t="s" s="16">
+        <v>74</v>
+      </c>
+      <c r="I24" t="n" s="17">
+        <v>0.06999999999999318</v>
+      </c>
+      <c r="J24" t="s" s="19">
+        <v>77</v>
+      </c>
+      <c r="K24" t="s" s="21">
+        <v>22</v>
+      </c>
+      <c r="L24" t="s" s="21">
+        <v>49</v>
+      </c>
+      <c r="M24" t="n" s="22">
+        <v>2.969999999999999</v>
+      </c>
+      <c r="N24" t="s" s="24">
+        <v>89</v>
+      </c>
+      <c r="O24" t="s" s="26">
+        <v>22</v>
+      </c>
+      <c r="P24" t="s" s="26">
+        <v>106</v>
+      </c>
+      <c r="Q24" t="n" s="27">
+        <v>1.9499999999999957</v>
+      </c>
+      <c r="R24" t="s" s="29">
+        <v>109</v>
+      </c>
+      <c r="S24" t="s" s="31">
+        <v>22</v>
+      </c>
+      <c r="T24" t="s" s="31">
+        <v>49</v>
+      </c>
+      <c r="U24" t="n" s="32">
+        <v>2.969999999999999</v>
+      </c>
+      <c r="V24" t="s" s="34">
+        <v>111</v>
+      </c>
+      <c r="W24" t="s" s="36">
+        <v>22</v>
+      </c>
+      <c r="X24" t="s" s="36">
+        <v>74</v>
+      </c>
+      <c r="Y24" t="n" s="37">
+        <v>0.06999999999999318</v>
+      </c>
+      <c r="Z24" t="s" s="39">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B25" s="4">
         <v>63.54</v>
       </c>
-      <c r="C24" t="s" s="11">
+      <c r="C25" t="s" s="11">
         <v>23</v>
       </c>
-      <c r="D24" t="s" s="11">
-        <v>47</v>
-      </c>
-      <c r="E24" t="n" s="12">
+      <c r="D25" t="s" s="11">
+        <v>50</v>
+      </c>
+      <c r="E25" t="n" s="12">
         <v>4.93</v>
       </c>
-      <c r="F24" t="s" s="14">
+      <c r="F25" t="s" s="14">
+        <v>56</v>
+      </c>
+      <c r="G25" t="s" s="16">
         <v>23</v>
       </c>
-      <c r="G24" t="s" s="14">
-        <v>47</v>
-      </c>
-      <c r="H24" t="n" s="15">
+      <c r="H25" t="s" s="16">
+        <v>75</v>
+      </c>
+      <c r="I25" t="n" s="17">
+        <v>3.539999999999999</v>
+      </c>
+      <c r="J25" t="s" s="19">
+        <v>77</v>
+      </c>
+      <c r="K25" t="s" s="21">
+        <v>23</v>
+      </c>
+      <c r="L25" t="s" s="21">
+        <v>50</v>
+      </c>
+      <c r="M25" t="n" s="22">
         <v>4.93</v>
       </c>
-      <c r="I24" t="s" s="17">
+      <c r="N25" t="s" s="24">
+        <v>89</v>
+      </c>
+      <c r="O25" t="s" s="26">
         <v>23</v>
       </c>
-      <c r="J24" t="s" s="17">
-        <v>47</v>
-      </c>
-      <c r="K24" t="n" s="18">
+      <c r="P25" t="s" s="26">
+        <v>107</v>
+      </c>
+      <c r="Q25" t="n" s="27">
+        <v>4.399999999999999</v>
+      </c>
+      <c r="R25" t="s" s="29">
+        <v>109</v>
+      </c>
+      <c r="S25" t="s" s="31">
+        <v>23</v>
+      </c>
+      <c r="T25" t="s" s="31">
+        <v>50</v>
+      </c>
+      <c r="U25" t="n" s="32">
         <v>4.93</v>
       </c>
-      <c r="L24" t="s" s="20">
+      <c r="V25" t="s" s="34">
+        <v>111</v>
+      </c>
+      <c r="W25" t="s" s="36">
         <v>23</v>
       </c>
-      <c r="M24" t="s" s="20">
-        <v>47</v>
-      </c>
-      <c r="N24" t="n" s="21">
-        <v>4.93</v>
+      <c r="X25" t="s" s="36">
+        <v>75</v>
+      </c>
+      <c r="Y25" t="n" s="37">
+        <v>3.539999999999999</v>
+      </c>
+      <c r="Z25" t="s" s="39">
+        <v>112</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="7" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="9">
+      <c r="B26" s="9">
         <v>89.62</v>
       </c>
-      <c r="C25" t="s" s="11">
+      <c r="C26" t="s" s="11">
         <v>24</v>
       </c>
-      <c r="D25" t="s" s="11">
-        <v>48</v>
-      </c>
-      <c r="E25" t="n" s="12">
+      <c r="D26" t="s" s="11">
+        <v>51</v>
+      </c>
+      <c r="E26" t="n" s="12">
         <v>1.1299999999999955</v>
       </c>
-      <c r="F25" t="s" s="14">
+      <c r="F26" t="s" s="14">
+        <v>56</v>
+      </c>
+      <c r="G26" t="s" s="16">
         <v>24</v>
       </c>
-      <c r="G25" t="s" s="14">
-        <v>48</v>
-      </c>
-      <c r="H25" t="n" s="15">
+      <c r="H26" t="s" s="16">
+        <v>76</v>
+      </c>
+      <c r="I26" t="n" s="17">
+        <v>7.3500000000000085</v>
+      </c>
+      <c r="J26" t="s" s="19">
+        <v>77</v>
+      </c>
+      <c r="K26" t="s" s="21">
+        <v>24</v>
+      </c>
+      <c r="L26" t="s" s="21">
+        <v>51</v>
+      </c>
+      <c r="M26" t="n" s="22">
         <v>1.1299999999999955</v>
       </c>
-      <c r="I25" t="s" s="17">
+      <c r="N26" t="s" s="24">
+        <v>89</v>
+      </c>
+      <c r="O26" t="s" s="26">
         <v>24</v>
       </c>
-      <c r="J25" t="s" s="17">
-        <v>48</v>
-      </c>
-      <c r="K25" t="n" s="18">
+      <c r="P26" t="s" s="26">
+        <v>108</v>
+      </c>
+      <c r="Q26" t="n" s="27">
+        <v>4.799999999999997</v>
+      </c>
+      <c r="R26" t="s" s="29">
+        <v>109</v>
+      </c>
+      <c r="S26" t="s" s="31">
+        <v>24</v>
+      </c>
+      <c r="T26" t="s" s="31">
+        <v>51</v>
+      </c>
+      <c r="U26" t="n" s="32">
         <v>1.1299999999999955</v>
       </c>
-      <c r="L25" t="s" s="20">
+      <c r="V26" t="s" s="34">
+        <v>111</v>
+      </c>
+      <c r="W26" t="s" s="36">
         <v>24</v>
       </c>
-      <c r="M25" t="s" s="20">
-        <v>48</v>
-      </c>
-      <c r="N25" t="n" s="21">
-        <v>1.1299999999999955</v>
+      <c r="X26" t="s" s="36">
+        <v>76</v>
+      </c>
+      <c r="Y26" t="n" s="37">
+        <v>7.3500000000000085</v>
+      </c>
+      <c r="Z26" t="s" s="39">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
